--- a/Parser/Parsing Table.xlsx
+++ b/Parser/Parsing Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\colledge\year 3\semester 2\Compilers\project\Parser\last version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070DD3CC-696F-4C3C-A927-6A836C0FF439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB934F97-03FF-433C-9499-A36D9C63675C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk103610787" localSheetId="0">ورقة1!$U$7</definedName>
+    <definedName name="_Hlk103610787" localSheetId="0">ورقة1!$U$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="180">
   <si>
     <t>STR</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>$</t>
-  </si>
-  <si>
-    <t>Category ID Derive</t>
   </si>
   <si>
     <t>ParameterList →Non-Empty List</t>
@@ -422,12 +419,6 @@
   </si>
   <si>
     <t>program`--&gt;classDeclaration End Program`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClassDeclaration→ Category ID{ Class_Implementation} </t>
-  </si>
-  <si>
-    <t>ClassDeclaration→Category ID Derive { Class_Implementation}</t>
   </si>
   <si>
     <t>program`→Ɛ</t>
@@ -628,7 +619,22 @@
     <t>Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Category </t>
+    <t>CD’</t>
+  </si>
+  <si>
+    <t>{ Class_Implementation}</t>
+  </si>
+  <si>
+    <t>Derive { Class_Implementation}</t>
+  </si>
+  <si>
+    <t>Derive</t>
+  </si>
+  <si>
+    <t>ClassDeclaration→Category ID CD’</t>
+  </si>
+  <si>
+    <t>ClassDeclaration→ Category ID CD’</t>
   </si>
 </sst>
 </file>
@@ -741,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -799,6 +805,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
@@ -1142,7 +1151,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{754FAD5B-0E70-4990-8FB4-C53EC0CB9587}" name="الجدول3" displayName="الجدول3" ref="H3:AX47" headerRowCount="0" headerRowDxfId="107" dataDxfId="106" totalsRowDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{754FAD5B-0E70-4990-8FB4-C53EC0CB9587}" name="الجدول3" displayName="الجدول3" ref="H3:AX48" headerRowCount="0" headerRowDxfId="107" dataDxfId="106" totalsRowDxfId="105">
   <tableColumns count="43">
     <tableColumn id="30" xr3:uid="{1C2450BE-343F-4B5D-9178-0B00B0FAE2C2}" name="عمود30" headerRowDxfId="104" dataDxfId="103" totalsRowDxfId="102"/>
     <tableColumn id="31" xr3:uid="{7DBAC5EC-D046-48EA-A2EF-E213B2BFB2CF}" name="عمود31" headerRowDxfId="101" dataDxfId="100" totalsRowDxfId="99"/>
@@ -1457,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E3:AX69"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1484,7 @@
         <v>177</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>73</v>
@@ -1529,7 +1538,7 @@
         <v>57</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC3" s="4" t="s">
         <v>56</v>
@@ -1599,10 +1608,10 @@
     <row r="4" spans="8:50" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1649,13 +1658,13 @@
     </row>
     <row r="5" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H5" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1703,10 +1712,10 @@
     <row r="6" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H6" s="2"/>
       <c r="I6" s="8" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1751,42 +1760,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="8:50" x14ac:dyDescent="0.25">
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="21" t="s">
+        <v>176</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>113</v>
-      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="X7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
@@ -1803,44 +1798,54 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
-      <c r="AT7" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AU7" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV7" s="9" t="s">
-        <v>126</v>
-      </c>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
-      <c r="AX7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="8:50" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AX7" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="6"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="12"/>
+      <c r="N8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>112</v>
+      </c>
       <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
+      <c r="W8" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
@@ -1858,19 +1863,25 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="12" t="s">
-        <v>129</v>
+      <c r="AO8" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
-      <c r="AT8" s="9"/>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="9"/>
+      <c r="AT8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV8" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="AW8" s="2"/>
-      <c r="AX8" s="15" t="s">
-        <v>114</v>
+      <c r="AX8" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="8:50" ht="18.75" x14ac:dyDescent="0.3">
@@ -1886,11 +1897,9 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="12"/>
+      <c r="T9" s="2"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="12" t="s">
-        <v>116</v>
-      </c>
+      <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -1908,26 +1917,26 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
-      <c r="AN9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO9" s="13"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="13"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="9"/>
       <c r="AW9" s="2"/>
       <c r="AX9" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="8:50" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1937,9 +1946,11 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="2"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -1957,23 +1968,23 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
-      <c r="AN10" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO10" s="2"/>
+      <c r="AN10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO10" s="13"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
       <c r="AW10" s="2"/>
-      <c r="AX10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="8:50" x14ac:dyDescent="0.25">
+      <c r="AX10" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1987,12 +1998,10 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="U11" s="10"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="10" t="s">
-        <v>130</v>
-      </c>
+      <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -2006,11 +2015,11 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
-      <c r="AL11" s="12" t="s">
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2"/>
@@ -2020,11 +2029,11 @@
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
-      <c r="AX11" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AX11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="8:50" x14ac:dyDescent="0.25">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2041,7 +2050,9 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
+      <c r="X12" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -2055,11 +2066,11 @@
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
-      <c r="AL12" s="2"/>
+      <c r="AL12" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="AM12" s="2"/>
-      <c r="AN12" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
@@ -2069,8 +2080,8 @@
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
-      <c r="AX12" s="3" t="s">
-        <v>9</v>
+      <c r="AX12" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2080,30 +2091,14 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -2122,7 +2117,9 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
+      <c r="AN13" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
@@ -2133,7 +2130,7 @@
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
       <c r="AX13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2144,28 +2141,28 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -2184,9 +2181,7 @@
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
-      <c r="AM14" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -2198,7 +2193,7 @@
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
       <c r="AX14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2209,28 +2204,28 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>139</v>
+        <v>75</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -2249,7 +2244,9 @@
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
+      <c r="AM15" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
@@ -2261,7 +2258,7 @@
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
       <c r="AX15" s="3" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2271,17 +2268,31 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="N16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
@@ -2298,9 +2309,7 @@
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
-      <c r="AM16" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
@@ -2312,80 +2321,48 @@
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
       <c r="AX16" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
+      <c r="AM17" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="AN17" s="2"/>
-      <c r="AO17" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
@@ -2395,37 +2372,69 @@
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
       <c r="AX17" s="3" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="K18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
+      <c r="AB18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
@@ -2434,7 +2443,9 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
-      <c r="AO18" s="2"/>
+      <c r="AO18" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
@@ -2444,7 +2455,7 @@
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
       <c r="AX18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2462,8 +2473,8 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="12" t="s">
-        <v>144</v>
+      <c r="V19" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -2480,9 +2491,7 @@
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
-      <c r="AL19" s="12" t="s">
-        <v>145</v>
-      </c>
+      <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
@@ -2495,82 +2504,48 @@
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
       <c r="AX19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF20" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
+      <c r="AL20" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
-      <c r="AO20" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2"/>
@@ -2580,7 +2555,7 @@
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
       <c r="AX20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2588,60 +2563,62 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="U21" s="12" t="s">
-        <v>146</v>
+        <v>82</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
+      <c r="W21" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="2" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="AF21" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
@@ -2652,7 +2629,7 @@
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
@@ -2663,7 +2640,7 @@
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
       <c r="AX21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2671,45 +2648,61 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="N22" s="2" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="U22" s="11" t="s">
-        <v>86</v>
+        <v>143</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
+      <c r="AB22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
@@ -2719,7 +2712,7 @@
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
       <c r="AO22" s="2" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2"/>
@@ -2730,24 +2723,42 @@
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
       <c r="AX22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -2767,8 +2778,8 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
-      <c r="AO23" s="11" t="s">
-        <v>87</v>
+      <c r="AO23" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2"/>
@@ -2779,7 +2790,7 @@
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
       <c r="AX23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2814,16 +2825,12 @@
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
-      <c r="AM24" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
-      <c r="AO24" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP24" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="AO24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP24" s="2"/>
       <c r="AQ24" s="2"/>
       <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
@@ -2832,10 +2839,10 @@
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
       <c r="AX24" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="8:50" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2867,13 +2874,15 @@
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
-      <c r="AM25" s="2"/>
+      <c r="AM25" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="AN25" s="2"/>
-      <c r="AO25" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP25" s="19" t="s">
-        <v>158</v>
+      <c r="AO25" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
@@ -2883,7 +2892,7 @@
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
       <c r="AX25" s="3" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="8:50" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2901,9 +2910,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="20" t="s">
-        <v>159</v>
-      </c>
+      <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
@@ -2920,12 +2927,14 @@
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
-      <c r="AM26" s="8" t="s">
-        <v>160</v>
-      </c>
+      <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="2"/>
+      <c r="AO26" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP26" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="AQ26" s="2"/>
       <c r="AR26" s="2"/>
       <c r="AS26" s="2"/>
@@ -2934,10 +2943,10 @@
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
       <c r="AX26" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="8:50" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2952,11 +2961,11 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+      <c r="V27" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="W27" s="2"/>
-      <c r="X27" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
@@ -2971,7 +2980,9 @@
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
-      <c r="AM27" s="2"/>
+      <c r="AM27" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
@@ -2983,7 +2994,7 @@
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
       <c r="AX27" s="3" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3003,10 +3014,10 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="11" t="s">
-        <v>89</v>
-      </c>
+      <c r="X28" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
@@ -3032,7 +3043,7 @@
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
       <c r="AX28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3053,7 +3064,9 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
+      <c r="Y29" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
@@ -3069,12 +3082,8 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" s="2"/>
-      <c r="AO29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP29" s="11" t="s">
-        <v>107</v>
-      </c>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
@@ -3083,7 +3092,7 @@
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
       <c r="AX29" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3105,12 +3114,8 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA30" s="12" t="s">
-        <v>109</v>
-      </c>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
@@ -3122,12 +3127,14 @@
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
-      <c r="AM30" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="AM30" s="2"/>
       <c r="AN30" s="2"/>
-      <c r="AO30" s="2"/>
-      <c r="AP30" s="11"/>
+      <c r="AO30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP30" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="AQ30" s="2"/>
       <c r="AR30" s="2"/>
       <c r="AS30" s="2"/>
@@ -3136,7 +3143,7 @@
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
       <c r="AX30" s="3" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3158,11 +3165,11 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="12" t="s">
-        <v>163</v>
+      <c r="Z31" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="AA31" s="12" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
@@ -3175,10 +3182,12 @@
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
-      <c r="AM31" s="2"/>
+      <c r="AM31" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
-      <c r="AP31" s="2"/>
+      <c r="AP31" s="11"/>
       <c r="AQ31" s="2"/>
       <c r="AR31" s="2"/>
       <c r="AS31" s="2"/>
@@ -3187,7 +3196,7 @@
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
       <c r="AX31" s="3" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3209,8 +3218,12 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
+      <c r="Z32" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA32" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
@@ -3224,12 +3237,8 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" s="2"/>
-      <c r="AO32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AP32" s="11" t="s">
-        <v>90</v>
-      </c>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2"/>
       <c r="AS32" s="2"/>
@@ -3238,7 +3247,7 @@
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
       <c r="AX32" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3267,40 +3276,32 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK33" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" s="2"/>
-      <c r="AO33" s="2"/>
-      <c r="AP33" s="2"/>
+      <c r="AO33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP33" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="AQ33" s="2"/>
       <c r="AR33" s="2"/>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2"/>
-      <c r="AU33" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
       <c r="AX33" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="8:50" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -3321,18 +3322,26 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC34" s="8"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
-      <c r="AE34" s="9"/>
+      <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
+      <c r="AG34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK34" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" s="2"/>
@@ -3342,11 +3351,13 @@
       <c r="AR34" s="2"/>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2"/>
-      <c r="AU34" s="2"/>
+      <c r="AU34" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="AV34" s="2"/>
       <c r="AW34" s="2"/>
       <c r="AX34" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="8:50" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3370,12 +3381,12 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="AB35" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC35" s="8"/>
       <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
+      <c r="AE35" s="9"/>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
@@ -3395,10 +3406,10 @@
       <c r="AV35" s="2"/>
       <c r="AW35" s="2"/>
       <c r="AX35" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="8:50" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3420,13 +3431,11 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE36" s="12" t="s">
-        <v>165</v>
-      </c>
+      <c r="AC36" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
@@ -3446,7 +3455,7 @@
       <c r="AV36" s="2"/>
       <c r="AW36" s="2"/>
       <c r="AX36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3472,11 +3481,13 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="AD37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE37" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
@@ -3495,7 +3506,7 @@
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
       <c r="AX37" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3523,7 +3534,9 @@
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
+      <c r="AF38" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
@@ -3532,12 +3545,8 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" s="2"/>
-      <c r="AO38" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP38" s="11" t="s">
-        <v>167</v>
-      </c>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="2"/>
       <c r="AQ38" s="2"/>
       <c r="AR38" s="2"/>
       <c r="AS38" s="2"/>
@@ -3546,7 +3555,7 @@
       <c r="AV38" s="2"/>
       <c r="AW38" s="2"/>
       <c r="AX38" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3564,9 +3573,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
-      <c r="V39" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
@@ -3577,45 +3584,29 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
-      <c r="AG39" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH39" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI39" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ39" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK39" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL39" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM39" s="12" t="s">
-        <v>168</v>
-      </c>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
       <c r="AN39" s="2"/>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="2"/>
+      <c r="AO39" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP39" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="AQ39" s="2"/>
       <c r="AR39" s="2"/>
-      <c r="AS39" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT39" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU39" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
       <c r="AV39" s="2"/>
       <c r="AW39" s="2"/>
       <c r="AX39" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3633,7 +3624,9 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
+      <c r="V40" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
@@ -3644,29 +3637,45 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
-      <c r="AH40" s="2"/>
-      <c r="AI40" s="2"/>
-      <c r="AJ40" s="2"/>
-      <c r="AK40" s="2"/>
-      <c r="AL40" s="2"/>
-      <c r="AM40" s="2"/>
+      <c r="AG40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM40" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
       <c r="AQ40" s="2"/>
       <c r="AR40" s="2"/>
       <c r="AS40" s="12" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="AT40" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AU40" s="2"/>
+      <c r="AU40" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="AV40" s="2"/>
       <c r="AW40" s="2"/>
       <c r="AX40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3703,21 +3712,21 @@
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
       <c r="AN41" s="2"/>
-      <c r="AO41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP41" s="11" t="s">
-        <v>104</v>
-      </c>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="2"/>
       <c r="AQ41" s="2"/>
       <c r="AR41" s="2"/>
-      <c r="AS41" s="2"/>
-      <c r="AT41" s="2"/>
+      <c r="AS41" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT41" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="AU41" s="2"/>
       <c r="AV41" s="2"/>
       <c r="AW41" s="2"/>
       <c r="AX41" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3735,9 +3744,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
-      <c r="V42" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
@@ -3748,52 +3755,32 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
-      <c r="AG42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM42" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
-      <c r="AO42" s="2"/>
-      <c r="AP42" s="2"/>
-      <c r="AQ42" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AR42" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT42" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="AU42" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="AO42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2"/>
       <c r="AV42" s="2"/>
       <c r="AW42" s="2"/>
       <c r="AX42" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="8:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -3808,7 +3795,9 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
+      <c r="V43" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
@@ -3819,32 +3808,52 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2"/>
-      <c r="AK43" s="2"/>
-      <c r="AL43" s="2"/>
-      <c r="AM43" s="2"/>
+      <c r="AG43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM43" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
-      <c r="AQ43" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR43" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS43" s="2"/>
-      <c r="AT43" s="2"/>
-      <c r="AU43" s="2"/>
+      <c r="AQ43" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR43" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT43" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU43" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="AV43" s="2"/>
       <c r="AW43" s="2"/>
       <c r="AX43" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="8:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -3878,21 +3887,21 @@
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
-      <c r="AO44" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP44" s="12" t="s">
+      <c r="AO44" s="2"/>
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="AQ44" s="2"/>
-      <c r="AR44" s="2"/>
+      <c r="AR44" s="17" t="s">
+        <v>169</v>
+      </c>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2"/>
       <c r="AU44" s="2"/>
       <c r="AV44" s="2"/>
       <c r="AW44" s="2"/>
       <c r="AX44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3929,21 +3938,21 @@
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
-      <c r="AO45" s="2"/>
-      <c r="AP45" s="2"/>
+      <c r="AO45" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP45" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="AQ45" s="2"/>
       <c r="AR45" s="2"/>
       <c r="AS45" s="2"/>
-      <c r="AT45" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="AU45" s="12" t="s">
-        <v>173</v>
-      </c>
+      <c r="AT45" s="2"/>
+      <c r="AU45" s="2"/>
       <c r="AV45" s="2"/>
       <c r="AW45" s="2"/>
       <c r="AX45" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3985,14 +3994,16 @@
       <c r="AQ46" s="2"/>
       <c r="AR46" s="2"/>
       <c r="AS46" s="2"/>
-      <c r="AT46" s="2"/>
-      <c r="AU46" s="2"/>
-      <c r="AV46" s="11" t="s">
-        <v>100</v>
-      </c>
+      <c r="AT46" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU46" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV46" s="2"/>
       <c r="AW46" s="2"/>
       <c r="AX46" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4036,11 +4047,60 @@
       <c r="AS47" s="2"/>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2"/>
-      <c r="AV47" s="2"/>
-      <c r="AW47" s="11" t="s">
+      <c r="AV47" s="11" t="s">
         <v>99</v>
       </c>
+      <c r="AW47" s="2"/>
       <c r="AX47" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="8:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48" s="2"/>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="2"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="2"/>
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="2"/>
+      <c r="AV48" s="2"/>
+      <c r="AW48" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX48" s="3" t="s">
         <v>39</v>
       </c>
     </row>
